--- a/data/trans_orig/IP2502_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2502_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BE048C8-3149-4A42-AC42-7CADE8D4EC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE411473-3E68-4379-96AC-BDBA0701E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1F9DB2C4-08C6-4F8D-BEEA-696F32BD4351}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1AFD3D8A-95F3-433F-9BAC-B21484EC8456}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,265 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>De 2 a 3h</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>Más de 3h</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>De 1 a 2h</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
   </si>
   <si>
     <t>43,31%</t>
@@ -98,9 +353,6 @@
     <t>46,47%</t>
   </si>
   <si>
-    <t>De 2 a 3h</t>
-  </si>
-  <si>
     <t>20,56%</t>
   </si>
   <si>
@@ -128,39 +380,6 @@
     <t>24,04%</t>
   </si>
   <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>Más de 3h</t>
-  </si>
-  <si>
     <t>6,37%</t>
   </si>
   <si>
@@ -188,123 +407,144 @@
     <t>8,39%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
     <t>39,6%</t>
   </si>
   <si>
@@ -356,33 +596,6 @@
     <t>17,78%</t>
   </si>
   <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
     <t>5,63%</t>
   </si>
   <si>
@@ -410,217 +623,31 @@
     <t>7,95%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>41,43%</t>
@@ -675,33 +702,6 @@
   </si>
   <si>
     <t>23,36%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
   </si>
   <si>
     <t>6,83%</t>
@@ -1120,7 +1120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90023C61-6085-43DA-81E3-FBCB1910BBC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C05A6-1AF2-4692-BEDA-1A95315E7240}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1238,10 +1238,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>107283</v>
+        <v>5254</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1253,10 +1253,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>77798</v>
+        <v>4304</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1268,10 +1268,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>185081</v>
+        <v>9558</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1289,10 +1289,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>50921</v>
+        <v>3932</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1304,10 +1304,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>38946</v>
+        <v>4189</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1319,10 +1319,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
-        <v>89867</v>
+        <v>8120</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1340,10 +1340,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>73714</v>
+        <v>3512</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1355,10 +1355,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>63683</v>
+        <v>5240</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1370,10 +1370,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="N6" s="7">
-        <v>137397</v>
+        <v>8752</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1391,10 +1391,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>15775</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1406,34 +1406,34 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>10539</v>
+        <v>1707</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1707</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="7">
-        <v>34</v>
-      </c>
-      <c r="N7" s="7">
-        <v>26314</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,102 +1442,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>339</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>247693</v>
+        <v>12698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>190966</v>
+        <v>15440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>616</v>
+        <v>45</v>
       </c>
       <c r="N8" s="7">
-        <v>438659</v>
+        <v>28138</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>47616</v>
+        <v>37918</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>68</v>
+      </c>
+      <c r="I9" s="7">
+        <v>39922</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7">
+      <c r="L9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="7">
+        <v>118</v>
+      </c>
+      <c r="N9" s="7">
+        <v>77840</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="7">
-        <v>36835</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="7">
-        <v>123</v>
-      </c>
-      <c r="N9" s="7">
-        <v>84450</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,49 +1546,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>19905</v>
+        <v>47616</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7">
+        <v>36835</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>31</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18386</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>123</v>
+      </c>
+      <c r="N10" s="7">
+        <v>84450</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="7">
-        <v>57</v>
-      </c>
-      <c r="N10" s="7">
-        <v>38290</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1597,49 +1597,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7">
-        <v>37918</v>
+        <v>19905</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>31</v>
+      </c>
+      <c r="I11" s="7">
+        <v>18386</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>68</v>
-      </c>
-      <c r="I11" s="7">
-        <v>39922</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>57</v>
+      </c>
+      <c r="N11" s="7">
+        <v>38290</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="7">
-        <v>118</v>
-      </c>
-      <c r="N11" s="7">
-        <v>77840</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,13 +1654,13 @@
         <v>9157</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -1669,13 +1669,13 @@
         <v>6824</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -1684,13 +1684,13 @@
         <v>15980</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1705,13 +1705,13 @@
         <v>114596</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -1720,13 +1720,13 @@
         <v>101966</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>317</v>
@@ -1735,66 +1735,66 @@
         <v>216561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>112</v>
+      </c>
+      <c r="D14" s="7">
+        <v>73714</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="7">
+        <v>102</v>
+      </c>
+      <c r="I14" s="7">
+        <v>63683</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="7">
+        <v>214</v>
+      </c>
+      <c r="N14" s="7">
+        <v>137397</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="D14" s="7">
-        <v>69086</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="7">
-        <v>96</v>
-      </c>
-      <c r="I14" s="7">
-        <v>70235</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" s="7">
-        <v>191</v>
-      </c>
-      <c r="N14" s="7">
-        <v>139320</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,49 +1803,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="D15" s="7">
-        <v>42082</v>
+        <v>107283</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>106</v>
+      </c>
+      <c r="I15" s="7">
+        <v>77798</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="7">
-        <v>44</v>
-      </c>
-      <c r="I15" s="7">
-        <v>31317</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>246</v>
+      </c>
+      <c r="N15" s="7">
+        <v>185081</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="7">
-        <v>98</v>
-      </c>
-      <c r="N15" s="7">
-        <v>73399</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,49 +1854,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>53471</v>
+        <v>50921</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>54</v>
+      </c>
+      <c r="I16" s="7">
+        <v>38946</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="7">
-        <v>84</v>
-      </c>
-      <c r="I16" s="7">
-        <v>58259</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>122</v>
+      </c>
+      <c r="N16" s="7">
+        <v>89867</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="7">
-        <v>159</v>
-      </c>
-      <c r="N16" s="7">
-        <v>111730</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,49 +1905,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>9817</v>
+        <v>15775</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10539</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="7">
-        <v>13</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9601</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>34</v>
+      </c>
+      <c r="N17" s="7">
+        <v>26314</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="7">
-        <v>26</v>
-      </c>
-      <c r="N17" s="7">
-        <v>19418</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,102 +1956,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="D18" s="7">
-        <v>174456</v>
+        <v>247693</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="I18" s="7">
-        <v>169412</v>
+        <v>190966</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>474</v>
+        <v>616</v>
       </c>
       <c r="N18" s="7">
-        <v>343868</v>
+        <v>438659</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>3932</v>
+        <v>41673</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>57</v>
+      </c>
+      <c r="I19" s="7">
+        <v>45213</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="7">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4189</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>115</v>
+      </c>
+      <c r="N19" s="7">
+        <v>86886</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="7">
-        <v>14</v>
-      </c>
-      <c r="N19" s="7">
-        <v>8120</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,49 +2060,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D20" s="7">
-        <v>3512</v>
+        <v>71443</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>96</v>
+      </c>
+      <c r="I20" s="7">
+        <v>68803</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="7">
-        <v>9</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5240</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>186</v>
+      </c>
+      <c r="N20" s="7">
+        <v>140247</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M20" s="7">
-        <v>14</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8752</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,49 +2111,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7">
-        <v>5254</v>
+        <v>45493</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>48</v>
+      </c>
+      <c r="I21" s="7">
+        <v>33630</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="7">
-        <v>8</v>
-      </c>
-      <c r="I21" s="7">
-        <v>4304</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>105</v>
+      </c>
+      <c r="N21" s="7">
+        <v>79123</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M21" s="7">
-        <v>15</v>
-      </c>
-      <c r="N21" s="7">
-        <v>9558</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,46 +2162,46 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>14600</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>21</v>
+      </c>
+      <c r="I22" s="7">
+        <v>16687</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1707</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>41</v>
+      </c>
+      <c r="N22" s="7">
+        <v>31286</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1707</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>158</v>
@@ -2213,49 +2213,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D23" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="I23" s="7">
-        <v>15440</v>
+        <v>164333</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="N23" s="7">
-        <v>28138</v>
+        <v>337542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,10 +2266,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D24" s="7">
-        <v>71443</v>
+        <v>53471</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>160</v>
@@ -2281,10 +2281,10 @@
         <v>162</v>
       </c>
       <c r="H24" s="7">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I24" s="7">
-        <v>68803</v>
+        <v>58259</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>163</v>
@@ -2296,19 +2296,19 @@
         <v>165</v>
       </c>
       <c r="M24" s="7">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="N24" s="7">
-        <v>140247</v>
+        <v>111730</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,49 +2317,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D25" s="7">
-        <v>45493</v>
+        <v>69086</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="I25" s="7">
-        <v>33630</v>
+        <v>70235</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="N25" s="7">
-        <v>79123</v>
+        <v>139320</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,49 +2368,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7">
-        <v>41673</v>
+        <v>42082</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I26" s="7">
-        <v>45213</v>
+        <v>31317</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="N26" s="7">
-        <v>86886</v>
+        <v>73399</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,10 +2419,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D27" s="7">
-        <v>14600</v>
+        <v>9817</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>186</v>
@@ -2434,10 +2434,10 @@
         <v>188</v>
       </c>
       <c r="H27" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I27" s="7">
-        <v>16687</v>
+        <v>9601</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>189</v>
@@ -2449,10 +2449,10 @@
         <v>191</v>
       </c>
       <c r="M27" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N27" s="7">
-        <v>31286</v>
+        <v>19418</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>192</v>
@@ -2470,49 +2470,49 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D28" s="7">
-        <v>173208</v>
+        <v>174456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="I28" s="7">
-        <v>164333</v>
+        <v>169412</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="N28" s="7">
-        <v>337542</v>
+        <v>343868</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,10 +2523,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="D29" s="7">
-        <v>299360</v>
+        <v>212030</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>195</v>
@@ -2538,10 +2538,10 @@
         <v>197</v>
       </c>
       <c r="H29" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I29" s="7">
-        <v>257859</v>
+        <v>211381</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>198</v>
@@ -2553,10 +2553,10 @@
         <v>200</v>
       </c>
       <c r="M29" s="7">
-        <v>760</v>
+        <v>621</v>
       </c>
       <c r="N29" s="7">
-        <v>557219</v>
+        <v>423411</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>201</v>
@@ -2574,10 +2574,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="D30" s="7">
-        <v>161913</v>
+        <v>299360</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>204</v>
@@ -2589,10 +2589,10 @@
         <v>206</v>
       </c>
       <c r="H30" s="7">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="I30" s="7">
-        <v>127519</v>
+        <v>257859</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>207</v>
@@ -2604,10 +2604,10 @@
         <v>209</v>
       </c>
       <c r="M30" s="7">
-        <v>396</v>
+        <v>760</v>
       </c>
       <c r="N30" s="7">
-        <v>289432</v>
+        <v>557219</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>210</v>
@@ -2625,10 +2625,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="D31" s="7">
-        <v>212030</v>
+        <v>161913</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>213</v>
@@ -2640,10 +2640,10 @@
         <v>215</v>
       </c>
       <c r="H31" s="7">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="I31" s="7">
-        <v>211381</v>
+        <v>127519</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>216</v>
@@ -2655,10 +2655,10 @@
         <v>218</v>
       </c>
       <c r="M31" s="7">
-        <v>621</v>
+        <v>396</v>
       </c>
       <c r="N31" s="7">
-        <v>423411</v>
+        <v>289432</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>219</v>
@@ -2733,13 +2733,13 @@
         <v>722651</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>927</v>
@@ -2748,13 +2748,13 @@
         <v>642117</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>1899</v>
@@ -2763,13 +2763,13 @@
         <v>1364768</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
